--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3523.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3523.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.674281500398562</v>
+        <v>1.683891415596008</v>
       </c>
       <c r="B1">
-        <v>2.602663787394321</v>
+        <v>2.119223833084106</v>
       </c>
       <c r="C1">
-        <v>3.062975362261378</v>
+        <v>2.02674126625061</v>
       </c>
       <c r="D1">
-        <v>3.510541155675012</v>
+        <v>1.617934107780457</v>
       </c>
       <c r="E1">
-        <v>1.923409168993071</v>
+        <v>1.48410964012146</v>
       </c>
     </row>
   </sheetData>
